--- a/Trabalho Final/Tabelas/sub_funcao.xlsx
+++ b/Trabalho Final/Tabelas/sub_funcao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,10 @@
     <t>Outros Encargos Especiais</t>
   </si>
   <si>
+    <t>codigo</t>
+  </si>
+  <si>
     <t>nome</t>
-  </si>
-  <si>
-    <t>codigo</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +844,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
